--- a/Output.xlsx
+++ b/Output.xlsx
@@ -7,6 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <x:sheet name="TS_AL_04" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +15,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>Test Scenario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TS_AL_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestCase#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Users</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Groups and Filters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Condition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expected Output</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actual Output</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestCase#3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Dynamic List-NJ-Over-1000045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Static</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kevin Corona,Manoj Peruri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Group5,Group1,Group2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>And</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Publish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>All filtered contacts must Satisfy Conditions of Defined Groups</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filters were applied correctly.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,7 +436,116 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
